--- a/public/data/contracts.xlsx
+++ b/public/data/contracts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -61,16 +61,28 @@
     <t>Augustus Kargbo</t>
   </si>
   <si>
-    <t>Celtic United</t>
-  </si>
-  <si>
-    <t>2025-12-03</t>
-  </si>
-  <si>
-    <t>2026-01-09</t>
-  </si>
-  <si>
-    <t>$12M</t>
+    <t>War Men</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>€8M</t>
+  </si>
+  <si>
+    <t>Expiring Soon</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2028-12-31</t>
+  </si>
+  <si>
+    <t>€15M</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -528,7 +540,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -543,6 +555,35 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
         <v>14</v>
       </c>
     </row>
